--- a/experiments/11-30-22 fluidic staining test/data.xlsx
+++ b/experiments/11-30-22 fluidic staining test/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\AutoCIF\experiments\11-30-22 fluidic staining test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9CE7CD2-8B1F-49D5-80B3-375A5245ACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144FF458-48CB-4DA8-A61F-87DA95A6FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4AAE8CD-681B-4AB7-BCB3-B0CA623F255A}"/>
   </bookViews>
@@ -2604,7 +2604,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
